--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="169" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1167C31-68B4-400E-8986-6EBEF954C34D}"/>
+  <xr:revisionPtr revIDLastSave="246" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E34F55F8-E08F-40F3-9DF2-0E37DCA1658B}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -113,9 +113,6 @@
     <t xml:space="preserve">Do not delete this row. This row is hidden to preserve a formula that is used to highlight the current day within the project schedule. </t>
   </si>
   <si>
-    <t>Initiation</t>
-  </si>
-  <si>
     <t>Project start:</t>
   </si>
   <si>
@@ -137,15 +134,9 @@
     <t>Data Exploration and Preprocessing</t>
   </si>
   <si>
-    <t>Data Exporation (EDA)</t>
-  </si>
-  <si>
     <t>Establish Machine Learning (ML) Pipeline</t>
   </si>
   <si>
-    <t>Identify risks (MoSCoW)</t>
-  </si>
-  <si>
     <t>Model Development &amp; Evaluation</t>
   </si>
   <si>
@@ -198,6 +189,30 @@
   </si>
   <si>
     <t>Write Future Work (Optional)</t>
+  </si>
+  <si>
+    <t>Must Have</t>
+  </si>
+  <si>
+    <t>PRIORITY</t>
+  </si>
+  <si>
+    <t>Should Have</t>
+  </si>
+  <si>
+    <t>Real-time Dropout Prediction Dashboard</t>
+  </si>
+  <si>
+    <t>Could Have</t>
+  </si>
+  <si>
+    <t>Gantt Chart &amp; Identify Risks (MoSCoW)</t>
+  </si>
+  <si>
+    <t>Project Initiation</t>
+  </si>
+  <si>
+    <t>Exploratory Data Analysis (EDA)</t>
   </si>
 </sst>
 </file>
@@ -782,7 +797,7 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1063,6 +1078,33 @@
     <xf numFmtId="169" fontId="17" fillId="10" borderId="9" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="17" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1080,10 +1122,17 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="8" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1098,28 +1147,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="25" fillId="0" borderId="0" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="26" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="12" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="0" xfId="11" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="10" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="17" fillId="10" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1513,6 +1540,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1722,14 +1753,14 @@
   <dimension ref="A1:BL37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="X16" sqref="X16"/>
+      <selection activeCell="C5" sqref="C5:C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="2.69921875" style="13" customWidth="1"/>
     <col min="2" max="2" width="38" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.69921875" customWidth="1"/>
+    <col min="3" max="3" width="16.8984375" customWidth="1"/>
     <col min="4" max="4" width="10.69921875" customWidth="1"/>
     <col min="5" max="5" width="10.69921875" style="2" customWidth="1"/>
     <col min="6" max="6" width="10.69921875" customWidth="1"/>
@@ -1740,70 +1771,70 @@
   <sheetData>
     <row r="1" spans="1:64" ht="53.4" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="14"/>
-      <c r="B1" s="116" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
+      <c r="B1" s="120" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="107" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="108"/>
-      <c r="K1" s="108"/>
-      <c r="L1" s="108"/>
-      <c r="M1" s="108"/>
-      <c r="N1" s="108"/>
-      <c r="O1" s="108"/>
+      <c r="I1" s="118" t="s">
+        <v>20</v>
+      </c>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="114">
+      <c r="Q1" s="116">
         <f>DATE(2025, 6, 2)</f>
         <v>45810</v>
       </c>
-      <c r="R1" s="115"/>
-      <c r="S1" s="115"/>
-      <c r="T1" s="115"/>
-      <c r="U1" s="115"/>
-      <c r="V1" s="115"/>
-      <c r="W1" s="115"/>
-      <c r="X1" s="115"/>
-      <c r="Y1" s="115"/>
-      <c r="Z1" s="115"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="B2" s="117" t="s">
-        <v>23</v>
+      <c r="B2" s="100" t="s">
+        <v>22</v>
       </c>
       <c r="C2" s="81" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="107" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
+      <c r="I2" s="118" t="s">
+        <v>21</v>
+      </c>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="105">
+      <c r="Q2" s="114">
         <v>1</v>
       </c>
-      <c r="R2" s="106"/>
-      <c r="S2" s="106"/>
-      <c r="T2" s="106"/>
-      <c r="U2" s="106"/>
-      <c r="V2" s="106"/>
-      <c r="W2" s="106"/>
-      <c r="X2" s="106"/>
-      <c r="Y2" s="106"/>
-      <c r="Z2" s="106"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1815,100 +1846,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="102">
+      <c r="I4" s="111">
         <f>I5</f>
         <v>45810</v>
       </c>
-      <c r="J4" s="100"/>
-      <c r="K4" s="100"/>
-      <c r="L4" s="100"/>
-      <c r="M4" s="100"/>
-      <c r="N4" s="100"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="100">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109">
         <f>P5</f>
         <v>45817</v>
       </c>
-      <c r="Q4" s="100"/>
-      <c r="R4" s="100"/>
-      <c r="S4" s="100"/>
-      <c r="T4" s="100"/>
-      <c r="U4" s="100"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="100">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109">
         <f>W5</f>
         <v>45824</v>
       </c>
-      <c r="X4" s="100"/>
-      <c r="Y4" s="100"/>
-      <c r="Z4" s="100"/>
-      <c r="AA4" s="100"/>
-      <c r="AB4" s="100"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="100">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109">
         <f>AD5</f>
         <v>45831</v>
       </c>
-      <c r="AE4" s="100"/>
-      <c r="AF4" s="100"/>
-      <c r="AG4" s="100"/>
-      <c r="AH4" s="100"/>
-      <c r="AI4" s="100"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="100">
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109">
         <f>AK5</f>
         <v>45838</v>
       </c>
-      <c r="AL4" s="100"/>
-      <c r="AM4" s="100"/>
-      <c r="AN4" s="100"/>
-      <c r="AO4" s="100"/>
-      <c r="AP4" s="100"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="100">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109">
         <f>AR5</f>
         <v>45845</v>
       </c>
-      <c r="AS4" s="100"/>
-      <c r="AT4" s="100"/>
-      <c r="AU4" s="100"/>
-      <c r="AV4" s="100"/>
-      <c r="AW4" s="100"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="100">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109">
         <f>AY5</f>
         <v>45852</v>
       </c>
-      <c r="AZ4" s="100"/>
-      <c r="BA4" s="100"/>
-      <c r="BB4" s="100"/>
-      <c r="BC4" s="100"/>
-      <c r="BD4" s="100"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="100">
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109">
         <f>BF5</f>
         <v>45859</v>
       </c>
-      <c r="BG4" s="100"/>
-      <c r="BH4" s="100"/>
-      <c r="BI4" s="100"/>
-      <c r="BJ4" s="100"/>
-      <c r="BK4" s="100"/>
-      <c r="BL4" s="101"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="110"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="103" t="s">
+      <c r="C5" s="124" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="103" t="s">
+      <c r="E5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="103" t="s">
+      <c r="F5" s="112" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="27">
@@ -2137,12 +2170,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="104"/>
-      <c r="E6" s="104"/>
-      <c r="F6" s="104"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2441,7 +2474,7 @@
     <row r="8" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="36" t="s">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C8" s="37"/>
       <c r="D8" s="38"/>
@@ -2512,9 +2545,11 @@
     <row r="9" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="14"/>
       <c r="B9" s="43" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="44"/>
+        <v>42</v>
+      </c>
+      <c r="C9" s="44" t="s">
+        <v>46</v>
+      </c>
       <c r="D9" s="45">
         <v>1</v>
       </c>
@@ -2591,11 +2626,13 @@
     <row r="10" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14"/>
       <c r="B10" s="47" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="48"/>
+        <v>51</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="D10" s="49">
-        <v>0.05</v>
+        <v>1</v>
       </c>
       <c r="E10" s="90">
         <f>F9</f>
@@ -2670,9 +2707,11 @@
     <row r="11" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="13"/>
       <c r="B11" s="47" t="s">
-        <v>33</v>
-      </c>
-      <c r="C11" s="48"/>
+        <v>30</v>
+      </c>
+      <c r="C11" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="D11" s="49">
         <v>1</v>
       </c>
@@ -2747,9 +2786,11 @@
     <row r="12" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="13"/>
       <c r="B12" s="47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="48" t="s">
         <v>46</v>
       </c>
-      <c r="C12" s="48"/>
       <c r="D12" s="49">
         <v>1</v>
       </c>
@@ -2824,11 +2865,13 @@
     <row r="13" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="48"/>
+        <v>25</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>46</v>
+      </c>
       <c r="D13" s="49">
-        <v>0.05</v>
+        <v>0.25</v>
       </c>
       <c r="E13" s="90">
         <v>45818</v>
@@ -2901,7 +2944,7 @@
     <row r="14" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="14"/>
       <c r="B14" s="51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="52"/>
       <c r="D14" s="53"/>
@@ -2916,9 +2959,11 @@
     <row r="15" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="14"/>
       <c r="B15" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" s="55"/>
+        <v>53</v>
+      </c>
+      <c r="C15" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D15" s="56">
         <v>0.44</v>
       </c>
@@ -2993,9 +3038,11 @@
     <row r="16" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" s="55"/>
+        <v>29</v>
+      </c>
+      <c r="C16" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D16" s="56">
         <v>0</v>
       </c>
@@ -3070,9 +3117,11 @@
     <row r="17" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" s="55"/>
+        <v>27</v>
+      </c>
+      <c r="C17" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D17" s="56">
         <v>0</v>
       </c>
@@ -3080,12 +3129,12 @@
         <v>45830</v>
       </c>
       <c r="F17" s="93">
-        <v>45833</v>
+        <v>45832</v>
       </c>
       <c r="G17" s="17"/>
       <c r="H17" s="5">
         <f t="shared" si="5"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="46"/>
       <c r="J17" s="46"/>
@@ -3147,9 +3196,11 @@
     <row r="18" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="54" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="55"/>
+        <v>31</v>
+      </c>
+      <c r="C18" s="55" t="s">
+        <v>46</v>
+      </c>
       <c r="D18" s="56">
         <v>0</v>
       </c>
@@ -3224,9 +3275,11 @@
     <row r="19" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="54" t="s">
-        <v>35</v>
-      </c>
-      <c r="C19" s="55"/>
+        <v>32</v>
+      </c>
+      <c r="C19" s="55" t="s">
+        <v>48</v>
+      </c>
       <c r="D19" s="56">
         <v>0</v>
       </c>
@@ -3301,7 +3354,7 @@
     <row r="20" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="57" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C20" s="58"/>
       <c r="D20" s="59"/>
@@ -3372,19 +3425,19 @@
     <row r="21" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="61" t="s">
-        <v>37</v>
-      </c>
-      <c r="C21" s="62"/>
+        <v>34</v>
+      </c>
+      <c r="C21" s="62" t="s">
+        <v>46</v>
+      </c>
       <c r="D21" s="63">
         <v>0</v>
       </c>
       <c r="E21" s="96">
-        <f>E9+15</f>
-        <v>45825</v>
+        <v>45838</v>
       </c>
       <c r="F21" s="96">
-        <f>E21+5</f>
-        <v>45830</v>
+        <v>45843</v>
       </c>
       <c r="G21" s="17"/>
       <c r="H21" s="5">
@@ -3451,24 +3504,24 @@
     <row r="22" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="B22" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="62"/>
+        <v>33</v>
+      </c>
+      <c r="C22" s="62" t="s">
+        <v>48</v>
+      </c>
       <c r="D22" s="63">
         <v>0</v>
       </c>
       <c r="E22" s="96">
-        <f>F21+1</f>
-        <v>45831</v>
+        <v>45844</v>
       </c>
       <c r="F22" s="96">
-        <f>E22+4</f>
-        <v>45835</v>
+        <v>45850</v>
       </c>
       <c r="G22" s="17"/>
       <c r="H22" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I22" s="46"/>
       <c r="J22" s="46"/>
@@ -3530,24 +3583,24 @@
     <row r="23" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="61" t="s">
-        <v>38</v>
-      </c>
-      <c r="C23" s="62"/>
+        <v>35</v>
+      </c>
+      <c r="C23" s="62" t="s">
+        <v>46</v>
+      </c>
       <c r="D23" s="63">
         <v>0</v>
       </c>
       <c r="E23" s="96">
-        <f>E22+5</f>
-        <v>45836</v>
+        <v>45851</v>
       </c>
       <c r="F23" s="96">
-        <f>E23+5</f>
-        <v>45841</v>
+        <v>45855</v>
       </c>
       <c r="G23" s="17"/>
       <c r="H23" s="5">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I23" s="46"/>
       <c r="J23" s="46"/>
@@ -3609,24 +3662,24 @@
     <row r="24" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="61" t="s">
-        <v>39</v>
-      </c>
-      <c r="C24" s="62"/>
+        <v>36</v>
+      </c>
+      <c r="C24" s="62" t="s">
+        <v>46</v>
+      </c>
       <c r="D24" s="63">
         <v>0</v>
       </c>
       <c r="E24" s="96">
-        <f>F23+1</f>
-        <v>45842</v>
+        <v>45856</v>
       </c>
       <c r="F24" s="96">
-        <f>E24+4</f>
-        <v>45846</v>
+        <v>45862</v>
       </c>
       <c r="G24" s="17"/>
       <c r="H24" s="5">
         <f t="shared" si="5"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I24" s="46"/>
       <c r="J24" s="46"/>
@@ -3687,85 +3740,84 @@
     </row>
     <row r="25" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63">
+      <c r="B25" s="105" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="106" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="107">
         <v>0</v>
       </c>
-      <c r="E25" s="96">
-        <f>E23</f>
-        <v>45836</v>
-      </c>
-      <c r="F25" s="96">
-        <f>E25+4</f>
-        <v>45840</v>
+      <c r="E25" s="108">
+        <v>45862</v>
+      </c>
+      <c r="F25" s="108">
+        <v>45866</v>
       </c>
       <c r="G25" s="17"/>
-      <c r="H25" s="5">
-        <f t="shared" si="5"/>
-        <v>5</v>
-      </c>
-      <c r="I25" s="46"/>
-      <c r="J25" s="46"/>
-      <c r="K25" s="46"/>
-      <c r="L25" s="46"/>
-      <c r="M25" s="46"/>
-      <c r="N25" s="46"/>
-      <c r="O25" s="46"/>
-      <c r="P25" s="46"/>
-      <c r="Q25" s="46"/>
-      <c r="R25" s="46"/>
-      <c r="S25" s="46"/>
-      <c r="T25" s="46"/>
-      <c r="U25" s="46"/>
-      <c r="V25" s="46"/>
-      <c r="W25" s="46"/>
-      <c r="X25" s="46"/>
-      <c r="Y25" s="46"/>
-      <c r="Z25" s="46"/>
-      <c r="AA25" s="46"/>
-      <c r="AB25" s="46"/>
-      <c r="AC25" s="46"/>
-      <c r="AD25" s="46"/>
-      <c r="AE25" s="46"/>
-      <c r="AF25" s="46"/>
-      <c r="AG25" s="46"/>
-      <c r="AH25" s="46"/>
-      <c r="AI25" s="46"/>
-      <c r="AJ25" s="46"/>
-      <c r="AK25" s="46"/>
-      <c r="AL25" s="46"/>
-      <c r="AM25" s="46"/>
-      <c r="AN25" s="46"/>
-      <c r="AO25" s="46"/>
-      <c r="AP25" s="46"/>
-      <c r="AQ25" s="46"/>
-      <c r="AR25" s="46"/>
-      <c r="AS25" s="46"/>
-      <c r="AT25" s="46"/>
-      <c r="AU25" s="46"/>
-      <c r="AV25" s="46"/>
-      <c r="AW25" s="46"/>
-      <c r="AX25" s="46"/>
-      <c r="AY25" s="46"/>
-      <c r="AZ25" s="46"/>
-      <c r="BA25" s="46"/>
-      <c r="BB25" s="46"/>
-      <c r="BC25" s="46"/>
-      <c r="BD25" s="46"/>
-      <c r="BE25" s="46"/>
-      <c r="BF25" s="46"/>
-      <c r="BG25" s="46"/>
-      <c r="BH25" s="46"/>
-      <c r="BI25" s="46"/>
-      <c r="BJ25" s="46"/>
-      <c r="BK25" s="46"/>
-      <c r="BL25" s="46"/>
+      <c r="H25" s="5"/>
+      <c r="I25" s="67"/>
+      <c r="J25" s="67"/>
+      <c r="K25" s="67"/>
+      <c r="L25" s="67"/>
+      <c r="M25" s="67"/>
+      <c r="N25" s="67"/>
+      <c r="O25" s="67"/>
+      <c r="P25" s="67"/>
+      <c r="Q25" s="67"/>
+      <c r="R25" s="67"/>
+      <c r="S25" s="67"/>
+      <c r="T25" s="67"/>
+      <c r="U25" s="67"/>
+      <c r="V25" s="67"/>
+      <c r="W25" s="67"/>
+      <c r="X25" s="67"/>
+      <c r="Y25" s="67"/>
+      <c r="Z25" s="67"/>
+      <c r="AA25" s="67"/>
+      <c r="AB25" s="67"/>
+      <c r="AC25" s="67"/>
+      <c r="AD25" s="67"/>
+      <c r="AE25" s="67"/>
+      <c r="AF25" s="67"/>
+      <c r="AG25" s="67"/>
+      <c r="AH25" s="67"/>
+      <c r="AI25" s="67"/>
+      <c r="AJ25" s="67"/>
+      <c r="AK25" s="67"/>
+      <c r="AL25" s="67"/>
+      <c r="AM25" s="67"/>
+      <c r="AN25" s="67"/>
+      <c r="AO25" s="67"/>
+      <c r="AP25" s="67"/>
+      <c r="AQ25" s="67"/>
+      <c r="AR25" s="67"/>
+      <c r="AS25" s="67"/>
+      <c r="AT25" s="67"/>
+      <c r="AU25" s="67"/>
+      <c r="AV25" s="67"/>
+      <c r="AW25" s="67"/>
+      <c r="AX25" s="67"/>
+      <c r="AY25" s="67"/>
+      <c r="AZ25" s="67"/>
+      <c r="BA25" s="67"/>
+      <c r="BB25" s="67"/>
+      <c r="BC25" s="67"/>
+      <c r="BD25" s="67"/>
+      <c r="BE25" s="67"/>
+      <c r="BF25" s="67"/>
+      <c r="BG25" s="67"/>
+      <c r="BH25" s="67"/>
+      <c r="BI25" s="67"/>
+      <c r="BJ25" s="67"/>
+      <c r="BK25" s="67"/>
+      <c r="BL25" s="67"/>
     </row>
     <row r="26" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="64" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C26" s="65"/>
       <c r="D26" s="66"/>
@@ -3836,22 +3888,24 @@
     <row r="27" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="69"/>
+        <v>38</v>
+      </c>
+      <c r="C27" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="D27" s="70">
         <v>0</v>
       </c>
       <c r="E27" s="99">
-        <v>45884</v>
+        <v>45863</v>
       </c>
       <c r="F27" s="99">
-        <v>45900</v>
+        <v>45869</v>
       </c>
       <c r="G27" s="17"/>
       <c r="H27" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I27" s="46"/>
       <c r="J27" s="46"/>
@@ -3913,22 +3967,24 @@
     <row r="28" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" s="69"/>
+        <v>39</v>
+      </c>
+      <c r="C28" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="D28" s="70">
         <v>0</v>
       </c>
       <c r="E28" s="99">
-        <v>45884</v>
+        <v>45870</v>
       </c>
       <c r="F28" s="99">
-        <v>45900</v>
+        <v>45876</v>
       </c>
       <c r="G28" s="17"/>
       <c r="H28" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I28" s="46"/>
       <c r="J28" s="46"/>
@@ -3990,22 +4046,24 @@
     <row r="29" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="B29" s="68" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="69"/>
+        <v>40</v>
+      </c>
+      <c r="C29" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="D29" s="70">
         <v>0</v>
       </c>
       <c r="E29" s="99">
-        <v>45884</v>
+        <v>45877</v>
       </c>
       <c r="F29" s="99">
-        <v>45900</v>
+        <v>45883</v>
       </c>
       <c r="G29" s="17"/>
       <c r="H29" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I29" s="46"/>
       <c r="J29" s="46"/>
@@ -4067,9 +4125,11 @@
     <row r="30" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="13"/>
       <c r="B30" s="68" t="s">
-        <v>47</v>
-      </c>
-      <c r="C30" s="69"/>
+        <v>44</v>
+      </c>
+      <c r="C30" s="69" t="s">
+        <v>46</v>
+      </c>
       <c r="D30" s="70">
         <v>0</v>
       </c>
@@ -4077,12 +4137,12 @@
         <v>45884</v>
       </c>
       <c r="F30" s="99">
-        <v>45900</v>
+        <v>45890</v>
       </c>
       <c r="G30" s="17"/>
       <c r="H30" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="I30" s="46"/>
       <c r="J30" s="46"/>
@@ -4144,22 +4204,24 @@
     <row r="31" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="13"/>
       <c r="B31" s="68" t="s">
-        <v>48</v>
-      </c>
-      <c r="C31" s="69"/>
+        <v>45</v>
+      </c>
+      <c r="C31" s="69" t="s">
+        <v>50</v>
+      </c>
       <c r="D31" s="70">
         <v>0</v>
       </c>
       <c r="E31" s="99">
-        <v>45884</v>
+        <v>45886</v>
       </c>
       <c r="F31" s="99">
-        <v>45900</v>
+        <v>45890</v>
       </c>
       <c r="G31" s="17"/>
       <c r="H31" s="5">
         <f t="shared" si="5"/>
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="I31" s="46"/>
       <c r="J31" s="46"/>
@@ -4220,15 +4282,21 @@
     </row>
     <row r="32" spans="1:64" s="42" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="13"/>
-      <c r="B32" s="118" t="s">
-        <v>44</v>
-      </c>
-      <c r="C32" s="119"/>
-      <c r="D32" s="120">
+      <c r="B32" s="101" t="s">
+        <v>41</v>
+      </c>
+      <c r="C32" s="102" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="103">
         <v>0</v>
       </c>
-      <c r="E32" s="121"/>
-      <c r="F32" s="121"/>
+      <c r="E32" s="104">
+        <v>45891</v>
+      </c>
+      <c r="F32" s="104">
+        <v>45896</v>
+      </c>
       <c r="G32" s="17"/>
       <c r="H32" s="5"/>
       <c r="I32" s="41"/>
@@ -4511,7 +4579,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="13">
+  <dataValidations count="13">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="Display Week" prompt="Changing this number will scroll the Gantt Chart view." sqref="Q2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
@@ -4534,9 +4602,6 @@
   <headerFooter differentFirst="1" scaleWithDoc="0">
     <oddFooter>Page &amp;P of &amp;N</oddFooter>
   </headerFooter>
-  <ignoredErrors>
-    <ignoredError sqref="F22:F23 E23" formula="1"/>
-  </ignoredErrors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>

--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="246" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E34F55F8-E08F-40F3-9DF2-0E37DCA1658B}"/>
+  <xr:revisionPtr revIDLastSave="251" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB533CD-AC7A-4104-A4E8-D5352D299E9D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,14 +1105,20 @@
     <xf numFmtId="169" fontId="17" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,20 +1139,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1752,8 +1752,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:C6"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1771,37 +1771,37 @@
   <sheetData>
     <row r="1" spans="1:64" ht="53.4" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="14"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="116">
+      <c r="Q1" s="118">
         <f>DATE(2025, 6, 2)</f>
         <v>45810</v>
       </c>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="100" t="s">
@@ -1813,28 +1813,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="114">
+      <c r="Q2" s="116">
         <v>1</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1846,102 +1846,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="111">
+      <c r="I4" s="125">
         <f>I5</f>
         <v>45810</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109">
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123">
         <f>P5</f>
         <v>45817</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109">
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123">
         <f>W5</f>
         <v>45824</v>
       </c>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109">
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123">
         <f>AD5</f>
         <v>45831</v>
       </c>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109">
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123">
         <f>AK5</f>
         <v>45838</v>
       </c>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109">
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123">
         <f>AR5</f>
         <v>45845</v>
       </c>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109">
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123">
         <f>AY5</f>
         <v>45852</v>
       </c>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="109"/>
-      <c r="BE4" s="109"/>
-      <c r="BF4" s="109">
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123">
         <f>BF5</f>
         <v>45859</v>
       </c>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="109"/>
-      <c r="BJ4" s="109"/>
-      <c r="BK4" s="109"/>
-      <c r="BL4" s="110"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123"/>
+      <c r="BL4" s="124"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="114" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="27">
@@ -2170,12 +2170,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2871,7 +2871,7 @@
         <v>46</v>
       </c>
       <c r="D13" s="49">
-        <v>0.25</v>
+        <v>1</v>
       </c>
       <c r="E13" s="90">
         <v>45818</v>
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="56">
-        <v>0.44</v>
+        <v>0.5</v>
       </c>
       <c r="E15" s="93">
         <v>45822</v>
@@ -3044,7 +3044,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="56">
-        <v>0</v>
+        <v>0.7</v>
       </c>
       <c r="E16" s="93">
         <v>45826</v>
@@ -4508,17 +4508,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="B1:F1"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4527,6 +4516,17 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="23">
@@ -4751,35 +4751,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5091,10 +5062,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5119,22 +5132,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="251" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAB533CD-AC7A-4104-A4E8-D5352D299E9D}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E41877-E813-46B3-AC90-B7FAF0E4206E}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -1105,20 +1105,14 @@
     <xf numFmtId="169" fontId="17" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,14 +1133,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1752,8 +1752,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A3" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1771,37 +1771,37 @@
   <sheetData>
     <row r="1" spans="1:64" ht="53.4" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="14"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="118">
+      <c r="Q1" s="116">
         <f>DATE(2025, 6, 2)</f>
         <v>45810</v>
       </c>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="100" t="s">
@@ -1813,28 +1813,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="116">
+      <c r="Q2" s="114">
         <v>1</v>
       </c>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1846,102 +1846,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="125">
+      <c r="I4" s="111">
         <f>I5</f>
         <v>45810</v>
       </c>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109">
         <f>P5</f>
         <v>45817</v>
       </c>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109">
         <f>W5</f>
         <v>45824</v>
       </c>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109">
         <f>AD5</f>
         <v>45831</v>
       </c>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123">
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109">
         <f>AK5</f>
         <v>45838</v>
       </c>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109">
         <f>AR5</f>
         <v>45845</v>
       </c>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109">
         <f>AY5</f>
         <v>45852</v>
       </c>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123">
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109">
         <f>BF5</f>
         <v>45859</v>
       </c>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="123"/>
-      <c r="BI4" s="123"/>
-      <c r="BJ4" s="123"/>
-      <c r="BK4" s="123"/>
-      <c r="BL4" s="124"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="110"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="112" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="27">
@@ -2170,12 +2170,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E15" s="93">
         <v>45822</v>
@@ -3044,7 +3044,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="56">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E16" s="93">
         <v>45826</v>
@@ -3123,7 +3123,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="56">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E17" s="93">
         <v>45830</v>
@@ -3202,7 +3202,7 @@
         <v>46</v>
       </c>
       <c r="D18" s="56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E18" s="93">
         <v>45833</v>
@@ -4508,6 +4508,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4516,17 +4527,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="23">
@@ -4751,6 +4751,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5062,52 +5091,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5132,9 +5119,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7E41877-E813-46B3-AC90-B7FAF0E4206E}"/>
+  <xr:revisionPtr revIDLastSave="261" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1967B408-8650-42FA-AA64-E540E6E79142}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:BL37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="56">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="E15" s="93">
         <v>45822</v>
@@ -3044,7 +3044,7 @@
         <v>46</v>
       </c>
       <c r="D16" s="56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E16" s="93">
         <v>45826</v>
@@ -3123,7 +3123,7 @@
         <v>46</v>
       </c>
       <c r="D17" s="56">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E17" s="93">
         <v>45830</v>
@@ -3281,7 +3281,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="56">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E19" s="93">
         <v>45835</v>
@@ -3431,7 +3431,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="63">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="E21" s="96">
         <v>45838</v>

--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="261" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1967B408-8650-42FA-AA64-E540E6E79142}"/>
+  <xr:revisionPtr revIDLastSave="272" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65A8C50-FC18-4778-AD14-9FF36B291F4D}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1752,8 +1752,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2965,7 +2965,7 @@
         <v>46</v>
       </c>
       <c r="D15" s="56">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="E15" s="93">
         <v>45822</v>
@@ -3281,7 +3281,7 @@
         <v>48</v>
       </c>
       <c r="D19" s="56">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E19" s="93">
         <v>45835</v>
@@ -3431,7 +3431,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="63">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="E21" s="96">
         <v>45838</v>
@@ -3510,7 +3510,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="63">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E22" s="96">
         <v>45844</v>
@@ -3589,7 +3589,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="63">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="E23" s="96">
         <v>45851</v>
@@ -3668,7 +3668,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="63">
-        <v>0</v>
+        <v>0.33</v>
       </c>
       <c r="E24" s="96">
         <v>45856</v>

--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive\UoB\Data Science Project\MScProject2025-Ali-Suhail\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="272" documentId="8_{A9045851-F1DA-4FAC-92A4-066E2532B652}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C65A8C50-FC18-4778-AD14-9FF36B291F4D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B5602-26CD-4C43-A521-B84F06392F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -1105,14 +1105,20 @@
     <xf numFmtId="169" fontId="17" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,20 +1139,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1540,10 +1540,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1752,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A20" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="BB23" sqref="BA23:BB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1771,37 +1767,37 @@
   <sheetData>
     <row r="1" spans="1:64" ht="53.4" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="14"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="116">
+      <c r="Q1" s="118">
         <f>DATE(2025, 6, 2)</f>
         <v>45810</v>
       </c>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="100" t="s">
@@ -1813,28 +1809,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="114">
+      <c r="Q2" s="116">
         <v>1</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1846,102 +1842,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="111">
+      <c r="I4" s="125">
         <f>I5</f>
         <v>45810</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109">
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123">
         <f>P5</f>
         <v>45817</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109">
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123">
         <f>W5</f>
         <v>45824</v>
       </c>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109">
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123">
         <f>AD5</f>
         <v>45831</v>
       </c>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109">
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123">
         <f>AK5</f>
         <v>45838</v>
       </c>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109">
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123">
         <f>AR5</f>
         <v>45845</v>
       </c>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109">
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123">
         <f>AY5</f>
         <v>45852</v>
       </c>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="109"/>
-      <c r="BE4" s="109"/>
-      <c r="BF4" s="109">
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123">
         <f>BF5</f>
         <v>45859</v>
       </c>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="109"/>
-      <c r="BJ4" s="109"/>
-      <c r="BK4" s="109"/>
-      <c r="BL4" s="110"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123"/>
+      <c r="BL4" s="124"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="114" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="27">
@@ -2170,12 +2166,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -3431,7 +3427,7 @@
         <v>46</v>
       </c>
       <c r="D21" s="63">
-        <v>0.4</v>
+        <v>1</v>
       </c>
       <c r="E21" s="96">
         <v>45838</v>
@@ -3510,7 +3506,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="63">
-        <v>0.4</v>
+        <v>0.9</v>
       </c>
       <c r="E22" s="96">
         <v>45844</v>
@@ -3589,7 +3585,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="63">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="E23" s="96">
         <v>45851</v>
@@ -3668,7 +3664,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="63">
-        <v>0.33</v>
+        <v>0.66</v>
       </c>
       <c r="E24" s="96">
         <v>45856</v>
@@ -4508,17 +4504,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="B1:F1"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4527,6 +4512,17 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="23">
@@ -4751,35 +4747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5091,10 +5058,52 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5119,22 +5128,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive\UoB\Data Science Project\MScProject2025-Ali-Suhail\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{472B5602-26CD-4C43-A521-B84F06392F82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394410FB-5B47-41A9-BAAB-FA6B736607B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1105,20 +1105,14 @@
     <xf numFmtId="169" fontId="17" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1139,14 +1133,20 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1748,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A11" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="BB23" sqref="BA23:BB23"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1767,37 +1767,37 @@
   <sheetData>
     <row r="1" spans="1:64" ht="53.4" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="14"/>
-      <c r="B1" s="122" t="s">
+      <c r="B1" s="120" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="120" t="s">
+      <c r="I1" s="118" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
+      <c r="J1" s="119"/>
+      <c r="K1" s="119"/>
+      <c r="L1" s="119"/>
+      <c r="M1" s="119"/>
+      <c r="N1" s="119"/>
+      <c r="O1" s="119"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="118">
+      <c r="Q1" s="116">
         <f>DATE(2025, 6, 2)</f>
         <v>45810</v>
       </c>
-      <c r="R1" s="119"/>
-      <c r="S1" s="119"/>
-      <c r="T1" s="119"/>
-      <c r="U1" s="119"/>
-      <c r="V1" s="119"/>
-      <c r="W1" s="119"/>
-      <c r="X1" s="119"/>
-      <c r="Y1" s="119"/>
-      <c r="Z1" s="119"/>
+      <c r="R1" s="117"/>
+      <c r="S1" s="117"/>
+      <c r="T1" s="117"/>
+      <c r="U1" s="117"/>
+      <c r="V1" s="117"/>
+      <c r="W1" s="117"/>
+      <c r="X1" s="117"/>
+      <c r="Y1" s="117"/>
+      <c r="Z1" s="117"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="100" t="s">
@@ -1809,28 +1809,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="120" t="s">
+      <c r="I2" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
-      <c r="N2" s="121"/>
-      <c r="O2" s="121"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="119"/>
+      <c r="O2" s="119"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="116">
+      <c r="Q2" s="114">
         <v>1</v>
       </c>
-      <c r="R2" s="117"/>
-      <c r="S2" s="117"/>
-      <c r="T2" s="117"/>
-      <c r="U2" s="117"/>
-      <c r="V2" s="117"/>
-      <c r="W2" s="117"/>
-      <c r="X2" s="117"/>
-      <c r="Y2" s="117"/>
-      <c r="Z2" s="117"/>
+      <c r="R2" s="115"/>
+      <c r="S2" s="115"/>
+      <c r="T2" s="115"/>
+      <c r="U2" s="115"/>
+      <c r="V2" s="115"/>
+      <c r="W2" s="115"/>
+      <c r="X2" s="115"/>
+      <c r="Y2" s="115"/>
+      <c r="Z2" s="115"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1842,102 +1842,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="125">
+      <c r="I4" s="111">
         <f>I5</f>
         <v>45810</v>
       </c>
-      <c r="J4" s="123"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="123"/>
-      <c r="M4" s="123"/>
-      <c r="N4" s="123"/>
-      <c r="O4" s="123"/>
-      <c r="P4" s="123">
+      <c r="J4" s="109"/>
+      <c r="K4" s="109"/>
+      <c r="L4" s="109"/>
+      <c r="M4" s="109"/>
+      <c r="N4" s="109"/>
+      <c r="O4" s="109"/>
+      <c r="P4" s="109">
         <f>P5</f>
         <v>45817</v>
       </c>
-      <c r="Q4" s="123"/>
-      <c r="R4" s="123"/>
-      <c r="S4" s="123"/>
-      <c r="T4" s="123"/>
-      <c r="U4" s="123"/>
-      <c r="V4" s="123"/>
-      <c r="W4" s="123">
+      <c r="Q4" s="109"/>
+      <c r="R4" s="109"/>
+      <c r="S4" s="109"/>
+      <c r="T4" s="109"/>
+      <c r="U4" s="109"/>
+      <c r="V4" s="109"/>
+      <c r="W4" s="109">
         <f>W5</f>
         <v>45824</v>
       </c>
-      <c r="X4" s="123"/>
-      <c r="Y4" s="123"/>
-      <c r="Z4" s="123"/>
-      <c r="AA4" s="123"/>
-      <c r="AB4" s="123"/>
-      <c r="AC4" s="123"/>
-      <c r="AD4" s="123">
+      <c r="X4" s="109"/>
+      <c r="Y4" s="109"/>
+      <c r="Z4" s="109"/>
+      <c r="AA4" s="109"/>
+      <c r="AB4" s="109"/>
+      <c r="AC4" s="109"/>
+      <c r="AD4" s="109">
         <f>AD5</f>
         <v>45831</v>
       </c>
-      <c r="AE4" s="123"/>
-      <c r="AF4" s="123"/>
-      <c r="AG4" s="123"/>
-      <c r="AH4" s="123"/>
-      <c r="AI4" s="123"/>
-      <c r="AJ4" s="123"/>
-      <c r="AK4" s="123">
+      <c r="AE4" s="109"/>
+      <c r="AF4" s="109"/>
+      <c r="AG4" s="109"/>
+      <c r="AH4" s="109"/>
+      <c r="AI4" s="109"/>
+      <c r="AJ4" s="109"/>
+      <c r="AK4" s="109">
         <f>AK5</f>
         <v>45838</v>
       </c>
-      <c r="AL4" s="123"/>
-      <c r="AM4" s="123"/>
-      <c r="AN4" s="123"/>
-      <c r="AO4" s="123"/>
-      <c r="AP4" s="123"/>
-      <c r="AQ4" s="123"/>
-      <c r="AR4" s="123">
+      <c r="AL4" s="109"/>
+      <c r="AM4" s="109"/>
+      <c r="AN4" s="109"/>
+      <c r="AO4" s="109"/>
+      <c r="AP4" s="109"/>
+      <c r="AQ4" s="109"/>
+      <c r="AR4" s="109">
         <f>AR5</f>
         <v>45845</v>
       </c>
-      <c r="AS4" s="123"/>
-      <c r="AT4" s="123"/>
-      <c r="AU4" s="123"/>
-      <c r="AV4" s="123"/>
-      <c r="AW4" s="123"/>
-      <c r="AX4" s="123"/>
-      <c r="AY4" s="123">
+      <c r="AS4" s="109"/>
+      <c r="AT4" s="109"/>
+      <c r="AU4" s="109"/>
+      <c r="AV4" s="109"/>
+      <c r="AW4" s="109"/>
+      <c r="AX4" s="109"/>
+      <c r="AY4" s="109">
         <f>AY5</f>
         <v>45852</v>
       </c>
-      <c r="AZ4" s="123"/>
-      <c r="BA4" s="123"/>
-      <c r="BB4" s="123"/>
-      <c r="BC4" s="123"/>
-      <c r="BD4" s="123"/>
-      <c r="BE4" s="123"/>
-      <c r="BF4" s="123">
+      <c r="AZ4" s="109"/>
+      <c r="BA4" s="109"/>
+      <c r="BB4" s="109"/>
+      <c r="BC4" s="109"/>
+      <c r="BD4" s="109"/>
+      <c r="BE4" s="109"/>
+      <c r="BF4" s="109">
         <f>BF5</f>
         <v>45859</v>
       </c>
-      <c r="BG4" s="123"/>
-      <c r="BH4" s="123"/>
-      <c r="BI4" s="123"/>
-      <c r="BJ4" s="123"/>
-      <c r="BK4" s="123"/>
-      <c r="BL4" s="124"/>
+      <c r="BG4" s="109"/>
+      <c r="BH4" s="109"/>
+      <c r="BI4" s="109"/>
+      <c r="BJ4" s="109"/>
+      <c r="BK4" s="109"/>
+      <c r="BL4" s="110"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="109"/>
-      <c r="B5" s="110" t="s">
+      <c r="A5" s="121"/>
+      <c r="B5" s="122" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="112" t="s">
+      <c r="C5" s="124" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="114" t="s">
+      <c r="D5" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="114" t="s">
+      <c r="E5" s="112" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="112" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="27">
@@ -2166,12 +2166,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="109"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="113"/>
-      <c r="D6" s="115"/>
-      <c r="E6" s="115"/>
-      <c r="F6" s="115"/>
+      <c r="A6" s="121"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="125"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
       <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -3585,7 +3585,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="63">
-        <v>0.7</v>
+        <v>0.9</v>
       </c>
       <c r="E23" s="96">
         <v>45851</v>
@@ -3664,7 +3664,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="63">
-        <v>0.66</v>
+        <v>0.9</v>
       </c>
       <c r="E24" s="96">
         <v>45856</v>
@@ -4504,6 +4504,17 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="B1:F1"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4512,17 +4523,6 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="B1:F1"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="23">
@@ -4747,6 +4747,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5058,52 +5087,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5128,9 +5115,22 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive\UoB\Data Science Project\MScProject2025-Ali-Suhail\documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{394410FB-5B47-41A9-BAAB-FA6B736607B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{90722E1F-2930-4829-963F-D550B1B4DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E128E0C8-CB1A-4402-9941-399E5BAEDB55}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -1748,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3506,7 +3506,7 @@
         <v>48</v>
       </c>
       <c r="D22" s="63">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E22" s="96">
         <v>45844</v>
@@ -3664,7 +3664,7 @@
         <v>46</v>
       </c>
       <c r="D24" s="63">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E24" s="96">
         <v>45856</v>
@@ -3969,7 +3969,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="70">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="E28" s="99">
         <v>45870</v>
@@ -4747,15 +4747,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
@@ -4775,7 +4766,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="28" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="60f5a4f2d2b0abadcf532d48ebf9cb71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" xmlns:ns4="230e9df3-be65-4c73-a93b-d1236ebd677e" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7dd78129e6a1811f84807ad11c651531" ns1:_="" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -5087,15 +5078,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -5114,7 +5106,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2348D59-3426-404A-A0C5-6456F6613EDB}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -5135,6 +5127,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata"/>
 </file>
--- a/documents/Gantt chart.xlsx
+++ b/documents/Gantt chart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/425b9db2548ee741/UoB/Data Science Project/MScProject2025-Ali-Suhail/documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive\UoB\Data Science Project\MScProject2025-Ali-Suhail\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="13_ncr:1_{90722E1F-2930-4829-963F-D550B1B4DBE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E128E0C8-CB1A-4402-9941-399E5BAEDB55}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6F819BB-FFD3-485F-9986-38A7AC22E04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Project schedule" sheetId="11" r:id="rId1"/>
@@ -1105,14 +1105,20 @@
     <xf numFmtId="169" fontId="17" fillId="5" borderId="0" xfId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1133,20 +1139,14 @@
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="3" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1748,8 +1748,8 @@
   </sheetPr>
   <dimension ref="A1:BL37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A23" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
+      <selection activeCell="Q2" sqref="Q2:Z2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1767,37 +1767,37 @@
   <sheetData>
     <row r="1" spans="1:64" ht="53.4" customHeight="1" x14ac:dyDescent="0.8">
       <c r="A1" s="14"/>
-      <c r="B1" s="120" t="s">
+      <c r="B1" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
       <c r="H1" s="1"/>
-      <c r="I1" s="118" t="s">
+      <c r="I1" s="120" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="119"/>
-      <c r="K1" s="119"/>
-      <c r="L1" s="119"/>
-      <c r="M1" s="119"/>
-      <c r="N1" s="119"/>
-      <c r="O1" s="119"/>
+      <c r="J1" s="121"/>
+      <c r="K1" s="121"/>
+      <c r="L1" s="121"/>
+      <c r="M1" s="121"/>
+      <c r="N1" s="121"/>
+      <c r="O1" s="121"/>
       <c r="P1" s="20"/>
-      <c r="Q1" s="116">
+      <c r="Q1" s="118">
         <f>DATE(2025, 6, 2)</f>
         <v>45810</v>
       </c>
-      <c r="R1" s="117"/>
-      <c r="S1" s="117"/>
-      <c r="T1" s="117"/>
-      <c r="U1" s="117"/>
-      <c r="V1" s="117"/>
-      <c r="W1" s="117"/>
-      <c r="X1" s="117"/>
-      <c r="Y1" s="117"/>
-      <c r="Z1" s="117"/>
+      <c r="R1" s="119"/>
+      <c r="S1" s="119"/>
+      <c r="T1" s="119"/>
+      <c r="U1" s="119"/>
+      <c r="V1" s="119"/>
+      <c r="W1" s="119"/>
+      <c r="X1" s="119"/>
+      <c r="Y1" s="119"/>
+      <c r="Z1" s="119"/>
     </row>
     <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.6">
       <c r="B2" s="100" t="s">
@@ -1809,28 +1809,28 @@
       <c r="D2" s="18"/>
       <c r="E2" s="19"/>
       <c r="F2" s="18"/>
-      <c r="I2" s="118" t="s">
+      <c r="I2" s="120" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="119"/>
-      <c r="O2" s="119"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
+      <c r="N2" s="121"/>
+      <c r="O2" s="121"/>
       <c r="P2" s="20"/>
-      <c r="Q2" s="114">
+      <c r="Q2" s="116">
         <v>1</v>
       </c>
-      <c r="R2" s="115"/>
-      <c r="S2" s="115"/>
-      <c r="T2" s="115"/>
-      <c r="U2" s="115"/>
-      <c r="V2" s="115"/>
-      <c r="W2" s="115"/>
-      <c r="X2" s="115"/>
-      <c r="Y2" s="115"/>
-      <c r="Z2" s="115"/>
+      <c r="R2" s="117"/>
+      <c r="S2" s="117"/>
+      <c r="T2" s="117"/>
+      <c r="U2" s="117"/>
+      <c r="V2" s="117"/>
+      <c r="W2" s="117"/>
+      <c r="X2" s="117"/>
+      <c r="Y2" s="117"/>
+      <c r="Z2" s="117"/>
     </row>
     <row r="3" spans="1:64" s="22" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="13"/>
@@ -1842,102 +1842,102 @@
       <c r="A4" s="14"/>
       <c r="B4" s="25"/>
       <c r="E4" s="26"/>
-      <c r="I4" s="111">
+      <c r="I4" s="125">
         <f>I5</f>
         <v>45810</v>
       </c>
-      <c r="J4" s="109"/>
-      <c r="K4" s="109"/>
-      <c r="L4" s="109"/>
-      <c r="M4" s="109"/>
-      <c r="N4" s="109"/>
-      <c r="O4" s="109"/>
-      <c r="P4" s="109">
+      <c r="J4" s="123"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="123"/>
+      <c r="M4" s="123"/>
+      <c r="N4" s="123"/>
+      <c r="O4" s="123"/>
+      <c r="P4" s="123">
         <f>P5</f>
         <v>45817</v>
       </c>
-      <c r="Q4" s="109"/>
-      <c r="R4" s="109"/>
-      <c r="S4" s="109"/>
-      <c r="T4" s="109"/>
-      <c r="U4" s="109"/>
-      <c r="V4" s="109"/>
-      <c r="W4" s="109">
+      <c r="Q4" s="123"/>
+      <c r="R4" s="123"/>
+      <c r="S4" s="123"/>
+      <c r="T4" s="123"/>
+      <c r="U4" s="123"/>
+      <c r="V4" s="123"/>
+      <c r="W4" s="123">
         <f>W5</f>
         <v>45824</v>
       </c>
-      <c r="X4" s="109"/>
-      <c r="Y4" s="109"/>
-      <c r="Z4" s="109"/>
-      <c r="AA4" s="109"/>
-      <c r="AB4" s="109"/>
-      <c r="AC4" s="109"/>
-      <c r="AD4" s="109">
+      <c r="X4" s="123"/>
+      <c r="Y4" s="123"/>
+      <c r="Z4" s="123"/>
+      <c r="AA4" s="123"/>
+      <c r="AB4" s="123"/>
+      <c r="AC4" s="123"/>
+      <c r="AD4" s="123">
         <f>AD5</f>
         <v>45831</v>
       </c>
-      <c r="AE4" s="109"/>
-      <c r="AF4" s="109"/>
-      <c r="AG4" s="109"/>
-      <c r="AH4" s="109"/>
-      <c r="AI4" s="109"/>
-      <c r="AJ4" s="109"/>
-      <c r="AK4" s="109">
+      <c r="AE4" s="123"/>
+      <c r="AF4" s="123"/>
+      <c r="AG4" s="123"/>
+      <c r="AH4" s="123"/>
+      <c r="AI4" s="123"/>
+      <c r="AJ4" s="123"/>
+      <c r="AK4" s="123">
         <f>AK5</f>
         <v>45838</v>
       </c>
-      <c r="AL4" s="109"/>
-      <c r="AM4" s="109"/>
-      <c r="AN4" s="109"/>
-      <c r="AO4" s="109"/>
-      <c r="AP4" s="109"/>
-      <c r="AQ4" s="109"/>
-      <c r="AR4" s="109">
+      <c r="AL4" s="123"/>
+      <c r="AM4" s="123"/>
+      <c r="AN4" s="123"/>
+      <c r="AO4" s="123"/>
+      <c r="AP4" s="123"/>
+      <c r="AQ4" s="123"/>
+      <c r="AR4" s="123">
         <f>AR5</f>
         <v>45845</v>
       </c>
-      <c r="AS4" s="109"/>
-      <c r="AT4" s="109"/>
-      <c r="AU4" s="109"/>
-      <c r="AV4" s="109"/>
-      <c r="AW4" s="109"/>
-      <c r="AX4" s="109"/>
-      <c r="AY4" s="109">
+      <c r="AS4" s="123"/>
+      <c r="AT4" s="123"/>
+      <c r="AU4" s="123"/>
+      <c r="AV4" s="123"/>
+      <c r="AW4" s="123"/>
+      <c r="AX4" s="123"/>
+      <c r="AY4" s="123">
         <f>AY5</f>
         <v>45852</v>
       </c>
-      <c r="AZ4" s="109"/>
-      <c r="BA4" s="109"/>
-      <c r="BB4" s="109"/>
-      <c r="BC4" s="109"/>
-      <c r="BD4" s="109"/>
-      <c r="BE4" s="109"/>
-      <c r="BF4" s="109">
+      <c r="AZ4" s="123"/>
+      <c r="BA4" s="123"/>
+      <c r="BB4" s="123"/>
+      <c r="BC4" s="123"/>
+      <c r="BD4" s="123"/>
+      <c r="BE4" s="123"/>
+      <c r="BF4" s="123">
         <f>BF5</f>
         <v>45859</v>
       </c>
-      <c r="BG4" s="109"/>
-      <c r="BH4" s="109"/>
-      <c r="BI4" s="109"/>
-      <c r="BJ4" s="109"/>
-      <c r="BK4" s="109"/>
-      <c r="BL4" s="110"/>
+      <c r="BG4" s="123"/>
+      <c r="BH4" s="123"/>
+      <c r="BI4" s="123"/>
+      <c r="BJ4" s="123"/>
+      <c r="BK4" s="123"/>
+      <c r="BL4" s="124"/>
     </row>
     <row r="5" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="121"/>
-      <c r="B5" s="122" t="s">
+      <c r="A5" s="109"/>
+      <c r="B5" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="124" t="s">
+      <c r="C5" s="112" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="112" t="s">
+      <c r="D5" s="114" t="s">
         <v>1</v>
       </c>
-      <c r="E5" s="112" t="s">
+      <c r="E5" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="112" t="s">
+      <c r="F5" s="114" t="s">
         <v>4</v>
       </c>
       <c r="I5" s="27">
@@ -2166,12 +2166,12 @@
       </c>
     </row>
     <row r="6" spans="1:64" s="22" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="121"/>
-      <c r="B6" s="123"/>
-      <c r="C6" s="125"/>
-      <c r="D6" s="113"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="113"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
       <c r="I6" s="30" t="str">
         <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"ddd"),1)</f>
         <v>M</v>
@@ -3585,7 +3585,7 @@
         <v>46</v>
       </c>
       <c r="D23" s="63">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E23" s="96">
         <v>45851</v>
@@ -3890,7 +3890,7 @@
         <v>46</v>
       </c>
       <c r="D27" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E27" s="99">
         <v>45863</v>
@@ -3969,7 +3969,7 @@
         <v>46</v>
       </c>
       <c r="D28" s="70">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="E28" s="99">
         <v>45870</v>
@@ -4048,7 +4048,7 @@
         <v>46</v>
       </c>
       <c r="D29" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" s="99">
         <v>45877</v>
@@ -4127,7 +4127,7 @@
         <v>46</v>
       </c>
       <c r="D30" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" s="99">
         <v>45884</v>
@@ -4206,7 +4206,7 @@
         <v>50</v>
       </c>
       <c r="D31" s="70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" s="99">
         <v>45886</v>
@@ -4285,7 +4285,7 @@
         <v>46</v>
       </c>
       <c r="D32" s="103">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" s="104">
         <v>45891</v>
@@ -4504,17 +4504,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="Q2:Z2"/>
-    <mergeCell ref="Q1:Z1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="I2:O2"/>
-    <mergeCell ref="B1:F1"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
@@ -4523,6 +4512,17 @@
     <mergeCell ref="AK4:AQ4"/>
     <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="Q2:Z2"/>
+    <mergeCell ref="Q1:Z1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I2:O2"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
   </mergeCells>
   <conditionalFormatting sqref="D7:D34">
     <cfRule type="dataBar" priority="23">
@@ -4747,23 +4747,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Url xsi:nil="true"/>
-      <Description xsi:nil="true"/>
-    </Image>
-    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
-    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
-    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ImageTagsTaxHTField>
-    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
-    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -5079,29 +5068,29 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_ip_UnifiedCompliancePolicyUIAction xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Image xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Url xsi:nil="true"/>
+      <Description xsi:nil="true"/>
+    </Image>
+    <Status xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">Not started</Status>
+    <Background xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">false</Background>
+    <_ip_UnifiedCompliancePolicyProperties xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <ImageTagsTaxHTField xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ImageTagsTaxHTField>
+    <TaxCatchAll xmlns="230e9df3-be65-4c73-a93b-d1236ebd677e" xsi:nil="true"/>
+    <MediaServiceKeyPoints xmlns="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -5128,9 +5117,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{97245281-08F3-4104-84BD-39F3D8CFB195}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A82239A0-E68C-493F-BEE6-C77FEA397FD6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="16c05727-aa75-4e4a-9b5f-8a80a1165891"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="230e9df3-be65-4c73-a93b-d1236ebd677e"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
